--- a/2016년 재료비 6월/점핑클레이 재료비.xlsx
+++ b/2016년 재료비 6월/점핑클레이 재료비.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="87">
   <si>
     <t>*주야</t>
   </si>
@@ -361,35 +361,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1024,7 +1024,9 @@
       <c r="F15" s="6">
         <v>13000</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">

--- a/2016년 재료비 6월/점핑클레이 재료비.xlsx
+++ b/2016년 재료비 6월/점핑클레이 재료비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="88">
   <si>
     <t>*주야</t>
   </si>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>심예인</t>
+  </si>
+  <si>
+    <t>자유수강대상자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -361,36 +365,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,43 +694,43 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
@@ -744,7 +748,7 @@
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="11">
         <v>13000</v>
       </c>
       <c r="G2" s="5"/>
@@ -765,7 +769,7 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="11">
         <v>13000</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -788,7 +792,7 @@
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="11">
         <v>13000</v>
       </c>
       <c r="G4" s="5"/>
@@ -809,7 +813,7 @@
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="11">
         <v>13000</v>
       </c>
       <c r="G5" s="5"/>
@@ -830,7 +834,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="11">
         <v>13000</v>
       </c>
       <c r="G6" s="5"/>
@@ -851,7 +855,7 @@
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>13000</v>
       </c>
       <c r="G7" s="5"/>
@@ -872,7 +876,7 @@
       <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="11">
         <v>13000</v>
       </c>
       <c r="G8" s="5"/>
@@ -893,7 +897,7 @@
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="11">
         <v>13000</v>
       </c>
       <c r="G9" s="5"/>
@@ -914,7 +918,7 @@
       <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="11">
         <v>13000</v>
       </c>
       <c r="G10" s="5"/>
@@ -935,7 +939,7 @@
       <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="11">
         <v>13000</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -958,7 +962,7 @@
       <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="11">
         <v>13000</v>
       </c>
       <c r="G12" s="5"/>
@@ -979,7 +983,7 @@
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="11">
         <v>13000</v>
       </c>
       <c r="G13" s="5"/>
@@ -1000,7 +1004,7 @@
       <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="11">
         <v>13000</v>
       </c>
       <c r="G14" s="5"/>
@@ -1021,11 +1025,11 @@
       <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="11">
         <v>13000</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1044,7 +1048,7 @@
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="11">
         <v>13000</v>
       </c>
       <c r="G16" s="5"/>
@@ -1065,7 +1069,7 @@
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="11">
         <v>13000</v>
       </c>
       <c r="G17" s="5"/>
@@ -1086,7 +1090,7 @@
       <c r="E18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="11">
         <v>13000</v>
       </c>
       <c r="G18" s="5"/>
@@ -1107,7 +1111,7 @@
       <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="11">
         <v>13000</v>
       </c>
       <c r="G19" s="5"/>
@@ -1128,7 +1132,7 @@
       <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="11">
         <v>13000</v>
       </c>
       <c r="G20" s="5"/>
@@ -1149,7 +1153,7 @@
       <c r="E21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="11">
         <v>13000</v>
       </c>
       <c r="G21" s="5"/>
@@ -1170,7 +1174,7 @@
       <c r="E22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="11">
         <v>13000</v>
       </c>
       <c r="G22" s="5"/>
@@ -1191,7 +1195,7 @@
       <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="11">
         <v>13000</v>
       </c>
       <c r="G23" s="5"/>
@@ -1212,7 +1216,7 @@
       <c r="E24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="11">
         <v>13000</v>
       </c>
       <c r="G24" s="5"/>
@@ -1233,7 +1237,7 @@
       <c r="E25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="11">
         <v>13000</v>
       </c>
       <c r="G25" s="5"/>
@@ -1254,7 +1258,7 @@
       <c r="E26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="11">
         <v>13000</v>
       </c>
       <c r="G26" s="5"/>
@@ -1275,7 +1279,7 @@
       <c r="E27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="11">
         <v>13000</v>
       </c>
       <c r="G27" s="5"/>
@@ -1296,7 +1300,7 @@
       <c r="E28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="11">
         <v>13000</v>
       </c>
       <c r="G28" s="5"/>
@@ -1317,7 +1321,7 @@
       <c r="E29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="11">
         <v>13000</v>
       </c>
       <c r="G29" s="5"/>
@@ -1338,7 +1342,7 @@
       <c r="E30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="11">
         <v>13000</v>
       </c>
       <c r="G30" s="5"/>
@@ -1359,7 +1363,7 @@
       <c r="E31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="11">
         <v>13000</v>
       </c>
       <c r="G31" s="5"/>
@@ -1380,7 +1384,7 @@
       <c r="E32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="11">
         <v>13000</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -1403,7 +1407,7 @@
       <c r="E33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="11">
         <v>13000</v>
       </c>
       <c r="G33" s="5"/>
@@ -1424,7 +1428,7 @@
       <c r="E34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="11">
         <v>13000</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -1447,7 +1451,7 @@
       <c r="E35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="11">
         <v>13000</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -1470,7 +1474,7 @@
       <c r="E36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="11">
         <v>13000</v>
       </c>
       <c r="G36" s="5"/>
@@ -1491,7 +1495,7 @@
       <c r="E37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="11">
         <v>13000</v>
       </c>
       <c r="G37" s="5"/>
@@ -1512,7 +1516,7 @@
       <c r="E38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="11">
         <v>13000</v>
       </c>
       <c r="G38" s="5"/>
@@ -1533,7 +1537,7 @@
       <c r="E39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="11">
         <v>13000</v>
       </c>
       <c r="G39" s="5"/>
@@ -1554,7 +1558,7 @@
       <c r="E40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="11">
         <v>13000</v>
       </c>
       <c r="G40" s="5"/>
@@ -1575,7 +1579,7 @@
       <c r="E41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="11">
         <v>13000</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -1598,7 +1602,7 @@
       <c r="E42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="11">
         <v>13000</v>
       </c>
       <c r="G42" s="5"/>
@@ -1619,7 +1623,7 @@
       <c r="E43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="11">
         <v>13000</v>
       </c>
       <c r="G43" s="5"/>
@@ -1640,7 +1644,7 @@
       <c r="E44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="11">
         <v>13000</v>
       </c>
       <c r="G44" s="5"/>
@@ -1661,7 +1665,7 @@
       <c r="E45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="11">
         <v>13000</v>
       </c>
       <c r="G45" s="5"/>
@@ -1682,7 +1686,7 @@
       <c r="E46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="11">
         <v>13000</v>
       </c>
       <c r="G46" s="5"/>
@@ -1703,7 +1707,7 @@
       <c r="E47" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="11">
         <v>13000</v>
       </c>
       <c r="G47" s="5"/>
@@ -1724,7 +1728,7 @@
       <c r="E48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="11">
         <v>13000</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -1747,7 +1751,7 @@
       <c r="E49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="11">
         <v>13000</v>
       </c>
       <c r="G49" s="5"/>
@@ -1768,7 +1772,7 @@
       <c r="E50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="11">
         <v>13000</v>
       </c>
       <c r="G50" s="5"/>
@@ -1789,7 +1793,7 @@
       <c r="E51" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="11">
         <v>13000</v>
       </c>
       <c r="G51" s="5"/>
@@ -1810,7 +1814,7 @@
       <c r="E52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="11">
         <v>13000</v>
       </c>
       <c r="G52" s="5"/>
@@ -1831,7 +1835,7 @@
       <c r="E53" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="11">
         <v>13000</v>
       </c>
       <c r="G53" s="5"/>
@@ -1852,7 +1856,7 @@
       <c r="E54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="11">
         <v>13000</v>
       </c>
       <c r="G54" s="5"/>
@@ -1873,7 +1877,7 @@
       <c r="E55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="11">
         <v>13000</v>
       </c>
       <c r="G55" s="5"/>
@@ -1894,7 +1898,7 @@
       <c r="E56" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="11">
         <v>13000</v>
       </c>
       <c r="G56" s="5"/>
@@ -1915,7 +1919,7 @@
       <c r="E57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="11">
         <v>13000</v>
       </c>
       <c r="G57" s="5"/>
@@ -1936,7 +1940,7 @@
       <c r="E58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="11">
         <v>13000</v>
       </c>
       <c r="G58" s="5"/>
@@ -1957,7 +1961,7 @@
       <c r="E59" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="11">
         <v>13000</v>
       </c>
       <c r="G59" s="5"/>
@@ -1978,7 +1982,7 @@
       <c r="E60" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="11">
         <v>13000</v>
       </c>
       <c r="G60" s="5"/>
@@ -1999,7 +2003,7 @@
       <c r="E61" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="11">
         <v>13000</v>
       </c>
       <c r="G61" s="5"/>
@@ -2020,7 +2024,7 @@
       <c r="E62" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="11">
         <v>13000</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -2043,7 +2047,7 @@
       <c r="E63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="11">
         <v>13000</v>
       </c>
       <c r="G63" s="5"/>
@@ -2064,7 +2068,7 @@
       <c r="E64" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="11">
         <v>13000</v>
       </c>
       <c r="G64" s="5"/>
@@ -2085,7 +2089,7 @@
       <c r="E65" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="11">
         <v>13000</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -2108,7 +2112,7 @@
       <c r="E66" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="11">
         <v>13000</v>
       </c>
       <c r="G66" s="5"/>
@@ -2129,7 +2133,7 @@
       <c r="E67" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="11">
         <v>13000</v>
       </c>
       <c r="G67" s="5"/>
@@ -2150,7 +2154,7 @@
       <c r="E68" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="11">
         <v>13000</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -2159,14 +2163,11 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="4">
-        <f>SUM(F2:F68)</f>
-        <v>871000</v>
-      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="5"/>
     </row>
   </sheetData>
